--- a/resources/testdata/master.xlsx
+++ b/resources/testdata/master.xlsx
@@ -46,10 +46,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>ag0056321</t>
-  </si>
-  <si>
     <t>ayancoolbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>find@123</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -447,10 +447,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -461,10 +461,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -477,6 +477,8 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/testdata/master.xlsx
+++ b/resources/testdata/master.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>TestCases</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>find@123</t>
+  </si>
+  <si>
+    <t>ExcelPageTest</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -405,6 +408,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -412,10 +423,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -473,6 +484,33 @@
     <row r="5" spans="1:4">
       <c r="B5" s="1"/>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>

--- a/resources/testdata/master.xlsx
+++ b/resources/testdata/master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <t>find@123</t>
   </si>
   <si>
-    <t>ExcelPageTest</t>
+    <t>validateExcelpageTest</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -383,13 +383,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -425,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
